--- a/Map-PSO2.xlsx
+++ b/Map-PSO2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ncd2763\Documents\Data\PSO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://whitecliffecollege-my.sharepoint.com/personal/sanaa_whitecliffe_ac_nz/Documents/Documents/Research/Data-NoV2023/PSO/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A9F18A8-DB0E-4096-ACF3-5F06A4DD7E3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{7A9F18A8-DB0E-4096-ACF3-5F06A4DD7E3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{78173194-A79A-413B-B43C-36DFC054F65B}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Mini Fitness</t>
   </si>
@@ -94,6 +94,9 @@
   </si>
   <si>
     <t>R10</t>
+  </si>
+  <si>
+    <t>avarage</t>
   </si>
 </sst>
 </file>
@@ -1766,6 +1769,10 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -2035,9 +2042,9 @@
       <selection activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:12" x14ac:dyDescent="0.35">
       <c r="C1" t="s">
         <v>9</v>
       </c>
@@ -2069,7 +2076,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B2">
         <v>1</v>
       </c>
@@ -2104,7 +2111,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B3">
         <v>2</v>
       </c>
@@ -2139,7 +2146,7 @@
         <v>1854.99999999999</v>
       </c>
     </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B4">
         <v>3</v>
       </c>
@@ -2174,7 +2181,7 @@
         <v>2756</v>
       </c>
     </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B5">
         <v>4</v>
       </c>
@@ -2209,7 +2216,7 @@
         <v>2756</v>
       </c>
     </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B6">
         <v>5</v>
       </c>
@@ -2244,7 +2251,7 @@
         <v>3068</v>
       </c>
     </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B7">
         <v>6</v>
       </c>
@@ -2279,7 +2286,7 @@
         <v>3068</v>
       </c>
     </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B8">
         <v>7</v>
       </c>
@@ -2314,7 +2321,7 @@
         <v>3068</v>
       </c>
     </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B9">
         <v>8</v>
       </c>
@@ -2349,7 +2356,7 @@
         <v>3074</v>
       </c>
     </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B10">
         <v>9</v>
       </c>
@@ -2384,7 +2391,7 @@
         <v>3304</v>
       </c>
     </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B11">
         <v>10</v>
       </c>
@@ -2419,7 +2426,7 @@
         <v>3304</v>
       </c>
     </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B12">
         <v>11</v>
       </c>
@@ -2454,7 +2461,7 @@
         <v>3304</v>
       </c>
     </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B13">
         <v>12</v>
       </c>
@@ -2489,7 +2496,7 @@
         <v>3304</v>
       </c>
     </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B14">
         <v>13</v>
       </c>
@@ -2524,7 +2531,7 @@
         <v>3304</v>
       </c>
     </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B15">
         <v>14</v>
       </c>
@@ -2559,7 +2566,7 @@
         <v>3304</v>
       </c>
     </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B16">
         <v>15</v>
       </c>
@@ -2594,7 +2601,7 @@
         <v>3304</v>
       </c>
     </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B17">
         <v>16</v>
       </c>
@@ -2629,7 +2636,7 @@
         <v>3304</v>
       </c>
     </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B18">
         <v>17</v>
       </c>
@@ -2664,7 +2671,7 @@
         <v>3363</v>
       </c>
     </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B19">
         <v>18</v>
       </c>
@@ -2699,7 +2706,7 @@
         <v>3363</v>
       </c>
     </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B20">
         <v>19</v>
       </c>
@@ -2734,7 +2741,7 @@
         <v>3363</v>
       </c>
     </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B21">
         <v>20</v>
       </c>
@@ -2769,7 +2776,7 @@
         <v>3363</v>
       </c>
     </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B22">
         <v>21</v>
       </c>
@@ -2804,7 +2811,7 @@
         <v>3363</v>
       </c>
     </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B23">
         <v>22</v>
       </c>
@@ -2839,7 +2846,7 @@
         <v>3363</v>
       </c>
     </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B24">
         <v>23</v>
       </c>
@@ -2874,7 +2881,7 @@
         <v>3630</v>
       </c>
     </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B25">
         <v>24</v>
       </c>
@@ -2909,7 +2916,7 @@
         <v>3630</v>
       </c>
     </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B26">
         <v>25</v>
       </c>
@@ -2944,7 +2951,7 @@
         <v>3630</v>
       </c>
     </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B27">
         <v>26</v>
       </c>
@@ -2979,7 +2986,7 @@
         <v>3630</v>
       </c>
     </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B28">
         <v>27</v>
       </c>
@@ -3014,7 +3021,7 @@
         <v>3630</v>
       </c>
     </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B29">
         <v>28</v>
       </c>
@@ -3049,7 +3056,7 @@
         <v>3630</v>
       </c>
     </row>
-    <row r="30" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B30">
         <v>29</v>
       </c>
@@ -3084,7 +3091,7 @@
         <v>3630</v>
       </c>
     </row>
-    <row r="31" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B31">
         <v>30</v>
       </c>
@@ -3119,7 +3126,7 @@
         <v>3630</v>
       </c>
     </row>
-    <row r="32" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B32">
         <v>31</v>
       </c>
@@ -3154,7 +3161,7 @@
         <v>3630</v>
       </c>
     </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B33">
         <v>32</v>
       </c>
@@ -3189,7 +3196,7 @@
         <v>3630</v>
       </c>
     </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B34">
         <v>33</v>
       </c>
@@ -3224,7 +3231,7 @@
         <v>3630</v>
       </c>
     </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B35">
         <v>34</v>
       </c>
@@ -3259,7 +3266,7 @@
         <v>3630</v>
       </c>
     </row>
-    <row r="36" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B36">
         <v>35</v>
       </c>
@@ -3294,7 +3301,7 @@
         <v>3630</v>
       </c>
     </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B37">
         <v>36</v>
       </c>
@@ -3329,7 +3336,7 @@
         <v>3630</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B38">
         <v>37</v>
       </c>
@@ -3364,7 +3371,7 @@
         <v>3630</v>
       </c>
     </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B39">
         <v>38</v>
       </c>
@@ -3399,7 +3406,7 @@
         <v>3630</v>
       </c>
     </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B40">
         <v>39</v>
       </c>
@@ -3434,7 +3441,7 @@
         <v>3630</v>
       </c>
     </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B41">
         <v>40</v>
       </c>
@@ -3469,7 +3476,7 @@
         <v>3630</v>
       </c>
     </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B42">
         <v>41</v>
       </c>
@@ -3504,7 +3511,7 @@
         <v>3630</v>
       </c>
     </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B43">
         <v>42</v>
       </c>
@@ -3539,7 +3546,7 @@
         <v>3630</v>
       </c>
     </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B44">
         <v>43</v>
       </c>
@@ -3574,7 +3581,7 @@
         <v>3630</v>
       </c>
     </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B45">
         <v>44</v>
       </c>
@@ -3609,7 +3616,7 @@
         <v>3630</v>
       </c>
     </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B46">
         <v>45</v>
       </c>
@@ -3644,7 +3651,7 @@
         <v>3630</v>
       </c>
     </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B47">
         <v>46</v>
       </c>
@@ -3679,7 +3686,7 @@
         <v>3630</v>
       </c>
     </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B48">
         <v>47</v>
       </c>
@@ -3714,7 +3721,7 @@
         <v>3630</v>
       </c>
     </row>
-    <row r="49" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B49">
         <v>48</v>
       </c>
@@ -3749,7 +3756,7 @@
         <v>3630</v>
       </c>
     </row>
-    <row r="50" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B50">
         <v>49</v>
       </c>
@@ -3784,7 +3791,7 @@
         <v>3630</v>
       </c>
     </row>
-    <row r="51" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B51">
         <v>50</v>
       </c>
@@ -3819,7 +3826,7 @@
         <v>3630</v>
       </c>
     </row>
-    <row r="52" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B52">
         <v>51</v>
       </c>
@@ -3854,7 +3861,7 @@
         <v>3630</v>
       </c>
     </row>
-    <row r="53" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B53">
         <v>52</v>
       </c>
@@ -3889,7 +3896,7 @@
         <v>3630</v>
       </c>
     </row>
-    <row r="54" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B54">
         <v>53</v>
       </c>
@@ -3924,7 +3931,7 @@
         <v>3630</v>
       </c>
     </row>
-    <row r="55" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B55">
         <v>54</v>
       </c>
@@ -3959,7 +3966,7 @@
         <v>3630</v>
       </c>
     </row>
-    <row r="56" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B56">
         <v>55</v>
       </c>
@@ -3994,7 +4001,7 @@
         <v>3630</v>
       </c>
     </row>
-    <row r="57" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B57">
         <v>56</v>
       </c>
@@ -4029,7 +4036,7 @@
         <v>3630</v>
       </c>
     </row>
-    <row r="58" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B58">
         <v>57</v>
       </c>
@@ -4064,7 +4071,7 @@
         <v>3630</v>
       </c>
     </row>
-    <row r="59" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B59">
         <v>58</v>
       </c>
@@ -4099,7 +4106,7 @@
         <v>3630</v>
       </c>
     </row>
-    <row r="60" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B60">
         <v>59</v>
       </c>
@@ -4134,7 +4141,7 @@
         <v>3630</v>
       </c>
     </row>
-    <row r="61" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B61">
         <v>60</v>
       </c>
@@ -4169,7 +4176,7 @@
         <v>3630</v>
       </c>
     </row>
-    <row r="62" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B62">
         <v>61</v>
       </c>
@@ -4204,7 +4211,7 @@
         <v>3630</v>
       </c>
     </row>
-    <row r="63" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B63">
         <v>62</v>
       </c>
@@ -4239,7 +4246,7 @@
         <v>3630</v>
       </c>
     </row>
-    <row r="64" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B64">
         <v>63</v>
       </c>
@@ -4274,7 +4281,7 @@
         <v>3630</v>
       </c>
     </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B65">
         <v>64</v>
       </c>
@@ -4309,7 +4316,7 @@
         <v>3630</v>
       </c>
     </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B66">
         <v>65</v>
       </c>
@@ -4344,7 +4351,7 @@
         <v>3630</v>
       </c>
     </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B67">
         <v>66</v>
       </c>
@@ -4379,7 +4386,7 @@
         <v>3630</v>
       </c>
     </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B68">
         <v>67</v>
       </c>
@@ -4414,7 +4421,7 @@
         <v>3630</v>
       </c>
     </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B69">
         <v>68</v>
       </c>
@@ -4449,7 +4456,7 @@
         <v>3630</v>
       </c>
     </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B70">
         <v>69</v>
       </c>
@@ -4484,7 +4491,7 @@
         <v>3630</v>
       </c>
     </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B71">
         <v>70</v>
       </c>
@@ -4519,7 +4526,7 @@
         <v>3630</v>
       </c>
     </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B72">
         <v>71</v>
       </c>
@@ -4554,7 +4561,7 @@
         <v>3630</v>
       </c>
     </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B73">
         <v>72</v>
       </c>
@@ -4589,7 +4596,7 @@
         <v>3630</v>
       </c>
     </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B74">
         <v>73</v>
       </c>
@@ -4624,7 +4631,7 @@
         <v>3630</v>
       </c>
     </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B75">
         <v>74</v>
       </c>
@@ -4659,7 +4666,7 @@
         <v>3630</v>
       </c>
     </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B76">
         <v>75</v>
       </c>
@@ -4694,7 +4701,7 @@
         <v>3630</v>
       </c>
     </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B77">
         <v>76</v>
       </c>
@@ -4729,7 +4736,7 @@
         <v>3630</v>
       </c>
     </row>
-    <row r="78" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B78">
         <v>77</v>
       </c>
@@ -4764,7 +4771,7 @@
         <v>3630</v>
       </c>
     </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B79">
         <v>78</v>
       </c>
@@ -4799,7 +4806,7 @@
         <v>3630</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B80">
         <v>79</v>
       </c>
@@ -4834,7 +4841,7 @@
         <v>3630</v>
       </c>
     </row>
-    <row r="81" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B81">
         <v>80</v>
       </c>
@@ -4869,7 +4876,7 @@
         <v>3630</v>
       </c>
     </row>
-    <row r="82" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B82">
         <v>81</v>
       </c>
@@ -4904,7 +4911,7 @@
         <v>3630</v>
       </c>
     </row>
-    <row r="83" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B83">
         <v>82</v>
       </c>
@@ -4939,7 +4946,7 @@
         <v>3630</v>
       </c>
     </row>
-    <row r="84" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B84">
         <v>83</v>
       </c>
@@ -4974,7 +4981,7 @@
         <v>3630</v>
       </c>
     </row>
-    <row r="85" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B85">
         <v>84</v>
       </c>
@@ -5009,7 +5016,7 @@
         <v>3630</v>
       </c>
     </row>
-    <row r="86" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B86">
         <v>85</v>
       </c>
@@ -5044,7 +5051,7 @@
         <v>3630</v>
       </c>
     </row>
-    <row r="87" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B87">
         <v>86</v>
       </c>
@@ -5079,7 +5086,7 @@
         <v>3630</v>
       </c>
     </row>
-    <row r="88" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B88">
         <v>87</v>
       </c>
@@ -5114,7 +5121,7 @@
         <v>3630</v>
       </c>
     </row>
-    <row r="89" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B89">
         <v>88</v>
       </c>
@@ -5149,7 +5156,7 @@
         <v>3630</v>
       </c>
     </row>
-    <row r="90" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B90">
         <v>89</v>
       </c>
@@ -5184,7 +5191,7 @@
         <v>3630</v>
       </c>
     </row>
-    <row r="91" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B91">
         <v>90</v>
       </c>
@@ -5219,7 +5226,7 @@
         <v>3630</v>
       </c>
     </row>
-    <row r="92" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B92">
         <v>91</v>
       </c>
@@ -5254,7 +5261,7 @@
         <v>3630</v>
       </c>
     </row>
-    <row r="93" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B93">
         <v>92</v>
       </c>
@@ -5289,7 +5296,7 @@
         <v>3630</v>
       </c>
     </row>
-    <row r="94" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B94">
         <v>93</v>
       </c>
@@ -5324,7 +5331,7 @@
         <v>3630</v>
       </c>
     </row>
-    <row r="95" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B95">
         <v>94</v>
       </c>
@@ -5359,7 +5366,7 @@
         <v>3630</v>
       </c>
     </row>
-    <row r="96" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B96">
         <v>95</v>
       </c>
@@ -5394,7 +5401,7 @@
         <v>3630</v>
       </c>
     </row>
-    <row r="97" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B97">
         <v>96</v>
       </c>
@@ -5429,7 +5436,7 @@
         <v>3630</v>
       </c>
     </row>
-    <row r="98" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B98">
         <v>97</v>
       </c>
@@ -5464,7 +5471,7 @@
         <v>3630</v>
       </c>
     </row>
-    <row r="99" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B99">
         <v>98</v>
       </c>
@@ -5499,7 +5506,7 @@
         <v>3630</v>
       </c>
     </row>
-    <row r="100" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B100">
         <v>99</v>
       </c>
@@ -5534,7 +5541,7 @@
         <v>3630</v>
       </c>
     </row>
-    <row r="101" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B101">
         <v>100</v>
       </c>
@@ -5569,7 +5576,7 @@
         <v>3630</v>
       </c>
     </row>
-    <row r="102" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B102">
         <v>101</v>
       </c>
@@ -5604,7 +5611,7 @@
         <v>3630</v>
       </c>
     </row>
-    <row r="103" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B103">
         <v>102</v>
       </c>
@@ -5639,7 +5646,7 @@
         <v>3630</v>
       </c>
     </row>
-    <row r="104" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B104">
         <v>103</v>
       </c>
@@ -5674,7 +5681,7 @@
         <v>3630</v>
       </c>
     </row>
-    <row r="105" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B105">
         <v>104</v>
       </c>
@@ -5709,7 +5716,7 @@
         <v>3630</v>
       </c>
     </row>
-    <row r="106" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B106">
         <v>105</v>
       </c>
@@ -5744,7 +5751,7 @@
         <v>3630</v>
       </c>
     </row>
-    <row r="107" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B107">
         <v>106</v>
       </c>
@@ -5779,7 +5786,7 @@
         <v>3630</v>
       </c>
     </row>
-    <row r="108" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B108">
         <v>107</v>
       </c>
@@ -5814,7 +5821,7 @@
         <v>3630</v>
       </c>
     </row>
-    <row r="109" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B109">
         <v>108</v>
       </c>
@@ -5849,7 +5856,7 @@
         <v>3630</v>
       </c>
     </row>
-    <row r="110" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B110">
         <v>109</v>
       </c>
@@ -5884,7 +5891,7 @@
         <v>3630</v>
       </c>
     </row>
-    <row r="111" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B111">
         <v>110</v>
       </c>
@@ -5919,7 +5926,7 @@
         <v>3630</v>
       </c>
     </row>
-    <row r="112" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B112">
         <v>111</v>
       </c>
@@ -5954,7 +5961,7 @@
         <v>3630</v>
       </c>
     </row>
-    <row r="113" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B113">
         <v>112</v>
       </c>
@@ -5989,7 +5996,7 @@
         <v>3630</v>
       </c>
     </row>
-    <row r="114" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B114">
         <v>113</v>
       </c>
@@ -6024,7 +6031,7 @@
         <v>3630</v>
       </c>
     </row>
-    <row r="115" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B115">
         <v>114</v>
       </c>
@@ -6059,7 +6066,7 @@
         <v>3630</v>
       </c>
     </row>
-    <row r="116" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B116">
         <v>115</v>
       </c>
@@ -6094,7 +6101,7 @@
         <v>3630</v>
       </c>
     </row>
-    <row r="117" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B117">
         <v>116</v>
       </c>
@@ -6129,7 +6136,7 @@
         <v>3630</v>
       </c>
     </row>
-    <row r="118" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B118">
         <v>117</v>
       </c>
@@ -6164,7 +6171,7 @@
         <v>3630</v>
       </c>
     </row>
-    <row r="119" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B119">
         <v>118</v>
       </c>
@@ -6199,7 +6206,7 @@
         <v>3630</v>
       </c>
     </row>
-    <row r="120" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B120">
         <v>119</v>
       </c>
@@ -6234,7 +6241,7 @@
         <v>3630</v>
       </c>
     </row>
-    <row r="121" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B121">
         <v>120</v>
       </c>
@@ -6269,7 +6276,7 @@
         <v>3630</v>
       </c>
     </row>
-    <row r="122" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B122">
         <v>121</v>
       </c>
@@ -6304,7 +6311,7 @@
         <v>3630</v>
       </c>
     </row>
-    <row r="123" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B123">
         <v>122</v>
       </c>
@@ -6339,7 +6346,7 @@
         <v>3630</v>
       </c>
     </row>
-    <row r="124" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B124">
         <v>123</v>
       </c>
@@ -6374,7 +6381,7 @@
         <v>3630</v>
       </c>
     </row>
-    <row r="125" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B125">
         <v>124</v>
       </c>
@@ -6409,7 +6416,7 @@
         <v>3630</v>
       </c>
     </row>
-    <row r="126" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B126">
         <v>125</v>
       </c>
@@ -6444,7 +6451,7 @@
         <v>3630</v>
       </c>
     </row>
-    <row r="127" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B127">
         <v>126</v>
       </c>
@@ -6479,7 +6486,7 @@
         <v>3630</v>
       </c>
     </row>
-    <row r="128" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B128">
         <v>127</v>
       </c>
@@ -6514,7 +6521,7 @@
         <v>3630</v>
       </c>
     </row>
-    <row r="129" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B129">
         <v>128</v>
       </c>
@@ -6549,7 +6556,7 @@
         <v>3630</v>
       </c>
     </row>
-    <row r="130" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B130">
         <v>129</v>
       </c>
@@ -6584,7 +6591,7 @@
         <v>3630</v>
       </c>
     </row>
-    <row r="131" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B131">
         <v>130</v>
       </c>
@@ -6619,7 +6626,7 @@
         <v>3630</v>
       </c>
     </row>
-    <row r="132" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B132">
         <v>131</v>
       </c>
@@ -6654,7 +6661,7 @@
         <v>3630</v>
       </c>
     </row>
-    <row r="133" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B133">
         <v>132</v>
       </c>
@@ -6689,7 +6696,7 @@
         <v>3630</v>
       </c>
     </row>
-    <row r="134" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B134">
         <v>133</v>
       </c>
@@ -6724,7 +6731,7 @@
         <v>3630</v>
       </c>
     </row>
-    <row r="135" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B135">
         <v>134</v>
       </c>
@@ -6759,7 +6766,7 @@
         <v>3630</v>
       </c>
     </row>
-    <row r="136" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B136">
         <v>135</v>
       </c>
@@ -6794,7 +6801,7 @@
         <v>3630</v>
       </c>
     </row>
-    <row r="137" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B137">
         <v>136</v>
       </c>
@@ -6829,7 +6836,7 @@
         <v>3630</v>
       </c>
     </row>
-    <row r="138" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B138">
         <v>137</v>
       </c>
@@ -6864,7 +6871,7 @@
         <v>3630</v>
       </c>
     </row>
-    <row r="139" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B139">
         <v>138</v>
       </c>
@@ -6899,7 +6906,7 @@
         <v>3630</v>
       </c>
     </row>
-    <row r="140" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B140">
         <v>139</v>
       </c>
@@ -6934,7 +6941,7 @@
         <v>3630</v>
       </c>
     </row>
-    <row r="141" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B141">
         <v>140</v>
       </c>
@@ -6969,7 +6976,7 @@
         <v>3630</v>
       </c>
     </row>
-    <row r="142" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B142">
         <v>141</v>
       </c>
@@ -7004,7 +7011,7 @@
         <v>3630</v>
       </c>
     </row>
-    <row r="143" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B143">
         <v>142</v>
       </c>
@@ -7039,7 +7046,7 @@
         <v>3630</v>
       </c>
     </row>
-    <row r="144" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B144">
         <v>143</v>
       </c>
@@ -7074,7 +7081,7 @@
         <v>3630</v>
       </c>
     </row>
-    <row r="145" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B145">
         <v>144</v>
       </c>
@@ -7109,7 +7116,7 @@
         <v>3630</v>
       </c>
     </row>
-    <row r="146" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B146">
         <v>145</v>
       </c>
@@ -7144,7 +7151,7 @@
         <v>3630</v>
       </c>
     </row>
-    <row r="147" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B147">
         <v>146</v>
       </c>
@@ -7179,7 +7186,7 @@
         <v>3630</v>
       </c>
     </row>
-    <row r="148" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B148">
         <v>147</v>
       </c>
@@ -7214,7 +7221,7 @@
         <v>3630</v>
       </c>
     </row>
-    <row r="149" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B149">
         <v>148</v>
       </c>
@@ -7249,7 +7256,7 @@
         <v>3630</v>
       </c>
     </row>
-    <row r="150" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B150">
         <v>149</v>
       </c>
@@ -7284,7 +7291,7 @@
         <v>3630</v>
       </c>
     </row>
-    <row r="151" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B151">
         <v>150</v>
       </c>
@@ -7319,7 +7326,7 @@
         <v>3630</v>
       </c>
     </row>
-    <row r="152" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B152">
         <v>151</v>
       </c>
@@ -7354,7 +7361,7 @@
         <v>3630</v>
       </c>
     </row>
-    <row r="153" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B153">
         <v>152</v>
       </c>
@@ -7389,7 +7396,7 @@
         <v>3630</v>
       </c>
     </row>
-    <row r="154" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B154">
         <v>153</v>
       </c>
@@ -7424,7 +7431,7 @@
         <v>3630</v>
       </c>
     </row>
-    <row r="155" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B155">
         <v>154</v>
       </c>
@@ -7459,7 +7466,7 @@
         <v>3630</v>
       </c>
     </row>
-    <row r="156" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B156">
         <v>155</v>
       </c>
@@ -7494,7 +7501,7 @@
         <v>3630</v>
       </c>
     </row>
-    <row r="157" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B157">
         <v>156</v>
       </c>
@@ -7529,7 +7536,7 @@
         <v>3630</v>
       </c>
     </row>
-    <row r="158" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B158">
         <v>157</v>
       </c>
@@ -7564,7 +7571,7 @@
         <v>3630</v>
       </c>
     </row>
-    <row r="159" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B159">
         <v>158</v>
       </c>
@@ -7599,7 +7606,7 @@
         <v>3630</v>
       </c>
     </row>
-    <row r="160" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B160">
         <v>159</v>
       </c>
@@ -7634,7 +7641,7 @@
         <v>3630</v>
       </c>
     </row>
-    <row r="161" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="161" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B161">
         <v>160</v>
       </c>
@@ -7669,7 +7676,7 @@
         <v>3630</v>
       </c>
     </row>
-    <row r="162" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B162">
         <v>161</v>
       </c>
@@ -7704,7 +7711,7 @@
         <v>3630</v>
       </c>
     </row>
-    <row r="163" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="163" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B163">
         <v>162</v>
       </c>
@@ -7739,7 +7746,7 @@
         <v>3630</v>
       </c>
     </row>
-    <row r="164" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="164" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B164">
         <v>163</v>
       </c>
@@ -7774,7 +7781,7 @@
         <v>3630</v>
       </c>
     </row>
-    <row r="165" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B165">
         <v>164</v>
       </c>
@@ -7809,7 +7816,7 @@
         <v>3630</v>
       </c>
     </row>
-    <row r="166" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="166" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B166">
         <v>165</v>
       </c>
@@ -7844,7 +7851,7 @@
         <v>3630</v>
       </c>
     </row>
-    <row r="167" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="167" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B167">
         <v>166</v>
       </c>
@@ -7879,7 +7886,7 @@
         <v>3630</v>
       </c>
     </row>
-    <row r="168" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="168" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B168">
         <v>167</v>
       </c>
@@ -7914,7 +7921,7 @@
         <v>3630</v>
       </c>
     </row>
-    <row r="169" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="169" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B169">
         <v>168</v>
       </c>
@@ -7949,7 +7956,7 @@
         <v>3630</v>
       </c>
     </row>
-    <row r="170" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="170" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B170">
         <v>169</v>
       </c>
@@ -7984,7 +7991,7 @@
         <v>3630</v>
       </c>
     </row>
-    <row r="171" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="171" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B171">
         <v>170</v>
       </c>
@@ -8019,7 +8026,7 @@
         <v>3630</v>
       </c>
     </row>
-    <row r="172" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="172" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B172">
         <v>171</v>
       </c>
@@ -8054,7 +8061,7 @@
         <v>3630</v>
       </c>
     </row>
-    <row r="173" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="173" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B173">
         <v>172</v>
       </c>
@@ -8089,7 +8096,7 @@
         <v>3630</v>
       </c>
     </row>
-    <row r="174" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="174" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B174">
         <v>173</v>
       </c>
@@ -8124,7 +8131,7 @@
         <v>3630</v>
       </c>
     </row>
-    <row r="175" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="175" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B175">
         <v>174</v>
       </c>
@@ -8159,7 +8166,7 @@
         <v>3630</v>
       </c>
     </row>
-    <row r="176" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="176" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B176">
         <v>175</v>
       </c>
@@ -8194,7 +8201,7 @@
         <v>3630</v>
       </c>
     </row>
-    <row r="177" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="177" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B177">
         <v>176</v>
       </c>
@@ -8229,7 +8236,7 @@
         <v>3630</v>
       </c>
     </row>
-    <row r="178" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="178" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B178">
         <v>177</v>
       </c>
@@ -8264,7 +8271,7 @@
         <v>3630</v>
       </c>
     </row>
-    <row r="179" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="179" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B179">
         <v>178</v>
       </c>
@@ -8299,7 +8306,7 @@
         <v>3630</v>
       </c>
     </row>
-    <row r="180" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="180" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B180">
         <v>179</v>
       </c>
@@ -8334,7 +8341,7 @@
         <v>3630</v>
       </c>
     </row>
-    <row r="181" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="181" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B181">
         <v>180</v>
       </c>
@@ -8369,7 +8376,7 @@
         <v>3630</v>
       </c>
     </row>
-    <row r="182" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="182" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B182">
         <v>181</v>
       </c>
@@ -8404,7 +8411,7 @@
         <v>3630</v>
       </c>
     </row>
-    <row r="183" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="183" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B183">
         <v>182</v>
       </c>
@@ -8439,7 +8446,7 @@
         <v>3630</v>
       </c>
     </row>
-    <row r="184" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="184" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B184">
         <v>183</v>
       </c>
@@ -8474,7 +8481,7 @@
         <v>3630</v>
       </c>
     </row>
-    <row r="185" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="185" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B185">
         <v>184</v>
       </c>
@@ -8509,7 +8516,7 @@
         <v>3630</v>
       </c>
     </row>
-    <row r="186" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="186" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B186">
         <v>185</v>
       </c>
@@ -8544,7 +8551,7 @@
         <v>3630</v>
       </c>
     </row>
-    <row r="187" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="187" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B187">
         <v>186</v>
       </c>
@@ -8579,7 +8586,7 @@
         <v>3630</v>
       </c>
     </row>
-    <row r="188" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="188" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B188">
         <v>187</v>
       </c>
@@ -8614,7 +8621,7 @@
         <v>3630</v>
       </c>
     </row>
-    <row r="189" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="189" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B189">
         <v>188</v>
       </c>
@@ -8649,7 +8656,7 @@
         <v>3630</v>
       </c>
     </row>
-    <row r="190" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="190" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B190">
         <v>189</v>
       </c>
@@ -8684,7 +8691,7 @@
         <v>3630</v>
       </c>
     </row>
-    <row r="191" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="191" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B191">
         <v>190</v>
       </c>
@@ -8719,7 +8726,7 @@
         <v>3630</v>
       </c>
     </row>
-    <row r="192" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="192" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B192">
         <v>191</v>
       </c>
@@ -8754,7 +8761,7 @@
         <v>3630</v>
       </c>
     </row>
-    <row r="193" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="193" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B193">
         <v>192</v>
       </c>
@@ -8789,7 +8796,7 @@
         <v>3630</v>
       </c>
     </row>
-    <row r="194" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="194" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B194">
         <v>193</v>
       </c>
@@ -8824,7 +8831,7 @@
         <v>3630</v>
       </c>
     </row>
-    <row r="195" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="195" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B195">
         <v>194</v>
       </c>
@@ -8859,7 +8866,7 @@
         <v>3630</v>
       </c>
     </row>
-    <row r="196" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="196" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B196">
         <v>195</v>
       </c>
@@ -8894,7 +8901,7 @@
         <v>3630</v>
       </c>
     </row>
-    <row r="197" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="197" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B197">
         <v>196</v>
       </c>
@@ -8929,7 +8936,7 @@
         <v>3630</v>
       </c>
     </row>
-    <row r="198" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="198" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B198">
         <v>197</v>
       </c>
@@ -8964,7 +8971,7 @@
         <v>3630</v>
       </c>
     </row>
-    <row r="199" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="199" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B199">
         <v>198</v>
       </c>
@@ -8999,7 +9006,7 @@
         <v>3630</v>
       </c>
     </row>
-    <row r="200" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="200" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B200">
         <v>199</v>
       </c>
@@ -9034,7 +9041,7 @@
         <v>3630</v>
       </c>
     </row>
-    <row r="201" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="201" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B201">
         <v>200</v>
       </c>
@@ -9069,7 +9076,7 @@
         <v>3630</v>
       </c>
     </row>
-    <row r="202" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="202" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B202">
         <v>201</v>
       </c>
@@ -9084,21 +9091,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0547AF3-99D4-43D7-913A-94315260C6A7}">
   <dimension ref="A1:L202"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="K28" sqref="K28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="16.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.42578125" customWidth="1"/>
-    <col min="5" max="5" width="17.7109375" customWidth="1"/>
-    <col min="6" max="6" width="17.140625" customWidth="1"/>
-    <col min="7" max="7" width="17.5703125" customWidth="1"/>
-    <col min="10" max="10" width="18.5703125" customWidth="1"/>
+    <col min="3" max="3" width="16.7265625" customWidth="1"/>
+    <col min="4" max="4" width="15.453125" customWidth="1"/>
+    <col min="5" max="5" width="17.7265625" customWidth="1"/>
+    <col min="6" max="6" width="17.1796875" customWidth="1"/>
+    <col min="7" max="7" width="17.54296875" customWidth="1"/>
+    <col min="10" max="10" width="18.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
         <v>5</v>
       </c>
@@ -9118,7 +9125,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2">
         <f>Data!B2</f>
         <v>1</v>
@@ -9148,7 +9155,7 @@
         <v>173.86579133343054</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3">
         <f>Data!B3</f>
         <v>2</v>
@@ -9178,7 +9185,7 @@
         <v>627.42287826393249</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4">
         <f>Data!B4</f>
         <v>3</v>
@@ -9208,7 +9215,7 @@
         <v>763.73715834965128</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5">
         <f>Data!B5</f>
         <v>4</v>
@@ -9238,7 +9245,7 @@
         <v>744.21217762208107</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6">
         <f>Data!B6</f>
         <v>5</v>
@@ -9268,7 +9275,7 @@
         <v>789.94714144745183</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7">
         <f>Data!B7</f>
         <v>6</v>
@@ -9298,7 +9305,7 @@
         <v>771.89244023309379</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8">
         <f>Data!B8</f>
         <v>7</v>
@@ -9328,7 +9335,7 @@
         <v>771.89244023309379</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9">
         <f>Data!B9</f>
         <v>8</v>
@@ -9358,7 +9365,7 @@
         <v>758.96900783167723</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10">
         <f>Data!B10</f>
         <v>9</v>
@@ -9388,7 +9395,7 @@
         <v>736.1060217720003</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11">
         <f>Data!B11</f>
         <v>10</v>
@@ -9418,7 +9425,7 @@
         <v>822.40889873651111</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12">
         <f>Data!B12</f>
         <v>11</v>
@@ -9448,7 +9455,7 @@
         <v>825.49132007611138</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13">
         <f>Data!B13</f>
         <v>12</v>
@@ -9478,7 +9485,7 @@
         <v>876.73716490234449</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14">
         <f>Data!B14</f>
         <v>13</v>
@@ -9508,7 +9515,7 @@
         <v>876.73716490234449</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15">
         <f>Data!B15</f>
         <v>14</v>
@@ -9538,7 +9545,7 @@
         <v>876.73716490234449</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16">
         <f>Data!B16</f>
         <v>15</v>
@@ -9568,7 +9575,7 @@
         <v>843.43506775625633</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A17">
         <f>Data!B17</f>
         <v>16</v>
@@ -9598,7 +9605,7 @@
         <v>925.57965446578442</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A18">
         <f>Data!B18</f>
         <v>17</v>
@@ -9628,7 +9635,7 @@
         <v>936.46824578359349</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A19">
         <f>Data!B19</f>
         <v>18</v>
@@ -9658,7 +9665,7 @@
         <v>933.0351338299115</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A20">
         <f>Data!B20</f>
         <v>19</v>
@@ -9688,7 +9695,7 @@
         <v>939.08104227537297</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A21">
         <f>Data!B21</f>
         <v>20</v>
@@ -9718,7 +9725,7 @@
         <v>939.08104227537297</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A22">
         <f>Data!B22</f>
         <v>21</v>
@@ -9748,7 +9755,7 @@
         <v>870.13187167233536</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A23">
         <f>Data!B23</f>
         <v>22</v>
@@ -9778,7 +9785,7 @@
         <v>870.13187167233536</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A24">
         <f>Data!B24</f>
         <v>23</v>
@@ -9808,7 +9815,7 @@
         <v>920.99338005221398</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A25">
         <f>Data!B25</f>
         <v>24</v>
@@ -9838,7 +9845,7 @@
         <v>920.99338005221398</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A26">
         <f>Data!B26</f>
         <v>25</v>
@@ -9868,7 +9875,7 @@
         <v>920.99338005221398</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A27">
         <f>Data!B27</f>
         <v>26</v>
@@ -9897,8 +9904,15 @@
         <f>_xlfn.STDEV.P(Data!C27:L27)</f>
         <v>920.00076331490231</v>
       </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J27" t="s">
+        <v>19</v>
+      </c>
+      <c r="K27">
+        <f>B201</f>
+        <v>2716.929999999998</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A28">
         <f>Data!B28</f>
         <v>27</v>
@@ -9939,7 +9953,7 @@
         <v>3780</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A29">
         <f>Data!B29</f>
         <v>28</v>
@@ -9980,7 +9994,7 @@
         <v>11.1</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A30">
         <f>Data!B30</f>
         <v>29</v>
@@ -10021,7 +10035,7 @@
         <v>997.52569495728096</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A31">
         <f>Data!B31</f>
         <v>30</v>
@@ -10051,7 +10065,7 @@
         <v>965.0423048239918</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A32">
         <f>Data!B32</f>
         <v>31</v>
@@ -10081,7 +10095,7 @@
         <v>965.0423048239918</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A33">
         <f>Data!B33</f>
         <v>32</v>
@@ -10111,7 +10125,7 @@
         <v>965.0423048239918</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A34">
         <f>Data!B34</f>
         <v>33</v>
@@ -10141,7 +10155,7 @@
         <v>965.0423048239918</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A35">
         <f>Data!B35</f>
         <v>34</v>
@@ -10171,7 +10185,7 @@
         <v>965.0423048239918</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A36">
         <f>Data!B36</f>
         <v>35</v>
@@ -10201,7 +10215,7 @@
         <v>965.0423048239918</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A37">
         <f>Data!B37</f>
         <v>36</v>
@@ -10231,7 +10245,7 @@
         <v>965.0423048239918</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A38">
         <f>Data!B38</f>
         <v>37</v>
@@ -10261,7 +10275,7 @@
         <v>965.0423048239918</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A39">
         <f>Data!B39</f>
         <v>38</v>
@@ -10291,7 +10305,7 @@
         <v>965.0423048239918</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A40">
         <f>Data!B40</f>
         <v>39</v>
@@ -10321,7 +10335,7 @@
         <v>965.0423048239918</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A41">
         <f>Data!B41</f>
         <v>40</v>
@@ -10351,7 +10365,7 @@
         <v>965.0423048239918</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A42">
         <f>Data!B42</f>
         <v>41</v>
@@ -10381,7 +10395,7 @@
         <v>965.0423048239918</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A43">
         <f>Data!B43</f>
         <v>42</v>
@@ -10411,7 +10425,7 @@
         <v>965.0423048239918</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A44">
         <f>Data!B44</f>
         <v>43</v>
@@ -10441,7 +10455,7 @@
         <v>965.0423048239918</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A45">
         <f>Data!B45</f>
         <v>44</v>
@@ -10471,7 +10485,7 @@
         <v>956.99514424055565</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A46">
         <f>Data!B46</f>
         <v>45</v>
@@ -10501,7 +10515,7 @@
         <v>956.99514424055565</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A47">
         <f>Data!B47</f>
         <v>46</v>
@@ -10531,7 +10545,7 @@
         <v>956.99514424055565</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A48">
         <f>Data!B48</f>
         <v>47</v>
@@ -10561,7 +10575,7 @@
         <v>956.99514424055565</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A49">
         <f>Data!B49</f>
         <v>48</v>
@@ -10591,7 +10605,7 @@
         <v>956.99514424055565</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A50">
         <f>Data!B50</f>
         <v>49</v>
@@ -10621,7 +10635,7 @@
         <v>956.91886678025264</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A51">
         <f>Data!B51</f>
         <v>50</v>
@@ -10651,7 +10665,7 @@
         <v>956.91886678025264</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A52">
         <f>Data!B52</f>
         <v>51</v>
@@ -10681,7 +10695,7 @@
         <v>956.91886678025264</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A53">
         <f>Data!B53</f>
         <v>52</v>
@@ -10711,7 +10725,7 @@
         <v>957.6422148172054</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A54">
         <f>Data!B54</f>
         <v>53</v>
@@ -10741,7 +10755,7 @@
         <v>957.6422148172054</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A55">
         <f>Data!B55</f>
         <v>54</v>
@@ -10771,7 +10785,7 @@
         <v>957.6422148172054</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A56">
         <f>Data!B56</f>
         <v>55</v>
@@ -10801,7 +10815,7 @@
         <v>961.47148766877251</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A57">
         <f>Data!B57</f>
         <v>56</v>
@@ -10831,7 +10845,7 @@
         <v>964.18207974427958</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A58">
         <f>Data!B58</f>
         <v>57</v>
@@ -10861,7 +10875,7 @@
         <v>964.18207974427958</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A59">
         <f>Data!B59</f>
         <v>58</v>
@@ -10891,7 +10905,7 @@
         <v>964.18207974427958</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A60">
         <f>Data!B60</f>
         <v>59</v>
@@ -10921,7 +10935,7 @@
         <v>936.83731116987622</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A61">
         <f>Data!B61</f>
         <v>60</v>
@@ -10951,7 +10965,7 @@
         <v>951.1035209691978</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A62">
         <f>Data!B62</f>
         <v>61</v>
@@ -10981,7 +10995,7 @@
         <v>951.1035209691978</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A63">
         <f>Data!B63</f>
         <v>62</v>
@@ -11011,7 +11025,7 @@
         <v>945.17405994875094</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A64">
         <f>Data!B64</f>
         <v>63</v>
@@ -11041,7 +11055,7 @@
         <v>958.22433886851616</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A65">
         <f>Data!B65</f>
         <v>64</v>
@@ -11071,7 +11085,7 @@
         <v>943.92978345849633</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A66">
         <f>Data!B66</f>
         <v>65</v>
@@ -11101,7 +11115,7 @@
         <v>960.64654899708239</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A67">
         <f>Data!B67</f>
         <v>66</v>
@@ -11131,7 +11145,7 @@
         <v>990.53789230902441</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A68">
         <f>Data!B68</f>
         <v>67</v>
@@ -11161,7 +11175,7 @@
         <v>892.57703090545908</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A69">
         <f>Data!B69</f>
         <v>68</v>
@@ -11191,7 +11205,7 @@
         <v>892.57703090545908</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A70">
         <f>Data!B70</f>
         <v>69</v>
@@ -11221,7 +11235,7 @@
         <v>892.57703090545908</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A71">
         <f>Data!B71</f>
         <v>70</v>
@@ -11251,7 +11265,7 @@
         <v>930.18837022401249</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A72">
         <f>Data!B72</f>
         <v>71</v>
@@ -11281,7 +11295,7 @@
         <v>930.18837022401249</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A73">
         <f>Data!B73</f>
         <v>72</v>
@@ -11311,7 +11325,7 @@
         <v>930.05449738174241</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A74">
         <f>Data!B74</f>
         <v>73</v>
@@ -11341,7 +11355,7 @@
         <v>930.05449738174241</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A75">
         <f>Data!B75</f>
         <v>74</v>
@@ -11371,7 +11385,7 @@
         <v>930.05449738174241</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A76">
         <f>Data!B76</f>
         <v>75</v>
@@ -11401,7 +11415,7 @@
         <v>930.05449738174241</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A77">
         <f>Data!B77</f>
         <v>76</v>
@@ -11431,7 +11445,7 @@
         <v>930.05449738174241</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A78">
         <f>Data!B78</f>
         <v>77</v>
@@ -11461,7 +11475,7 @@
         <v>930.05449738174241</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A79">
         <f>Data!B79</f>
         <v>78</v>
@@ -11491,7 +11505,7 @@
         <v>930.05449738174241</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A80">
         <f>Data!B80</f>
         <v>79</v>
@@ -11521,7 +11535,7 @@
         <v>930.05449738174241</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A81">
         <f>Data!B81</f>
         <v>80</v>
@@ -11551,7 +11565,7 @@
         <v>950.53973935864724</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A82">
         <f>Data!B82</f>
         <v>81</v>
@@ -11581,7 +11595,7 @@
         <v>946.80780948406073</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A83">
         <f>Data!B83</f>
         <v>82</v>
@@ -11611,7 +11625,7 @@
         <v>967.25562707073743</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A84">
         <f>Data!B84</f>
         <v>83</v>
@@ -11641,7 +11655,7 @@
         <v>967.25562707073743</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A85">
         <f>Data!B85</f>
         <v>84</v>
@@ -11671,7 +11685,7 @@
         <v>963.2937247278245</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A86">
         <f>Data!B86</f>
         <v>85</v>
@@ -11701,7 +11715,7 @@
         <v>963.2937247278245</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A87">
         <f>Data!B87</f>
         <v>86</v>
@@ -11731,7 +11745,7 @@
         <v>963.2937247278245</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A88">
         <f>Data!B88</f>
         <v>87</v>
@@ -11761,7 +11775,7 @@
         <v>963.2937247278245</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A89">
         <f>Data!B89</f>
         <v>88</v>
@@ -11791,7 +11805,7 @@
         <v>963.2937247278245</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A90">
         <f>Data!B90</f>
         <v>89</v>
@@ -11821,7 +11835,7 @@
         <v>963.2937247278245</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A91">
         <f>Data!B91</f>
         <v>90</v>
@@ -11851,7 +11865,7 @@
         <v>963.2937247278245</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A92">
         <f>Data!B92</f>
         <v>91</v>
@@ -11881,7 +11895,7 @@
         <v>963.2937247278245</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A93">
         <f>Data!B93</f>
         <v>92</v>
@@ -11911,7 +11925,7 @@
         <v>963.2937247278245</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A94">
         <f>Data!B94</f>
         <v>93</v>
@@ -11941,7 +11955,7 @@
         <v>963.50866322000741</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A95">
         <f>Data!B95</f>
         <v>94</v>
@@ -11971,7 +11985,7 @@
         <v>963.50866322000741</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A96">
         <f>Data!B96</f>
         <v>95</v>
@@ -12001,7 +12015,7 @@
         <v>963.93884458507262</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A97">
         <f>Data!B97</f>
         <v>96</v>
@@ -12031,7 +12045,7 @@
         <v>945.56601467058101</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A98">
         <f>Data!B98</f>
         <v>97</v>
@@ -12061,7 +12075,7 @@
         <v>945.56601467058101</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A99">
         <f>Data!B99</f>
         <v>98</v>
@@ -12091,7 +12105,7 @@
         <v>945.56601467058101</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A100">
         <f>Data!B100</f>
         <v>99</v>
@@ -12121,7 +12135,7 @@
         <v>945.56601467058101</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A101">
         <f>Data!B101</f>
         <v>100</v>
@@ -12151,7 +12165,7 @@
         <v>941.50689859395334</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A102">
         <f>Data!B102</f>
         <v>101</v>
@@ -12181,7 +12195,7 @@
         <v>941.50689859395334</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A103">
         <f>Data!B103</f>
         <v>102</v>
@@ -12211,7 +12225,7 @@
         <v>941.50689859395334</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A104">
         <f>Data!B104</f>
         <v>103</v>
@@ -12241,7 +12255,7 @@
         <v>941.50689859395334</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A105">
         <f>Data!B105</f>
         <v>104</v>
@@ -12271,7 +12285,7 @@
         <v>942.88821399994413</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A106">
         <f>Data!B106</f>
         <v>105</v>
@@ -12301,7 +12315,7 @@
         <v>942.88821399994413</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A107">
         <f>Data!B107</f>
         <v>106</v>
@@ -12331,7 +12345,7 @@
         <v>942.88821399994413</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A108">
         <f>Data!B108</f>
         <v>107</v>
@@ -12361,7 +12375,7 @@
         <v>942.88821399994413</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A109">
         <f>Data!B109</f>
         <v>108</v>
@@ -12391,7 +12405,7 @@
         <v>942.88821399994413</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A110">
         <f>Data!B110</f>
         <v>109</v>
@@ -12421,7 +12435,7 @@
         <v>942.88821399994413</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A111">
         <f>Data!B111</f>
         <v>110</v>
@@ -12451,7 +12465,7 @@
         <v>942.88821399994413</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A112">
         <f>Data!B112</f>
         <v>111</v>
@@ -12481,7 +12495,7 @@
         <v>942.88821399994413</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A113">
         <f>Data!B113</f>
         <v>112</v>
@@ -12511,7 +12525,7 @@
         <v>942.88821399994413</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A114">
         <f>Data!B114</f>
         <v>113</v>
@@ -12541,7 +12555,7 @@
         <v>942.88821399994413</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A115">
         <f>Data!B115</f>
         <v>114</v>
@@ -12571,7 +12585,7 @@
         <v>942.88821399994413</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A116">
         <f>Data!B116</f>
         <v>115</v>
@@ -12601,7 +12615,7 @@
         <v>942.88821399994413</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A117">
         <f>Data!B117</f>
         <v>116</v>
@@ -12631,7 +12645,7 @@
         <v>942.88821399994413</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A118">
         <f>Data!B118</f>
         <v>117</v>
@@ -12661,7 +12675,7 @@
         <v>942.88821399994413</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A119">
         <f>Data!B119</f>
         <v>118</v>
@@ -12691,7 +12705,7 @@
         <v>942.88821399994413</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A120">
         <f>Data!B120</f>
         <v>119</v>
@@ -12721,7 +12735,7 @@
         <v>942.88821399994413</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A121">
         <f>Data!B121</f>
         <v>120</v>
@@ -12751,7 +12765,7 @@
         <v>945.72548242077323</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A122">
         <f>Data!B122</f>
         <v>121</v>
@@ -12781,7 +12795,7 @@
         <v>945.72548242077323</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A123">
         <f>Data!B123</f>
         <v>122</v>
@@ -12811,7 +12825,7 @@
         <v>941.67894746564548</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A124">
         <f>Data!B124</f>
         <v>123</v>
@@ -12841,7 +12855,7 @@
         <v>941.67894746564548</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A125">
         <f>Data!B125</f>
         <v>124</v>
@@ -12871,7 +12885,7 @@
         <v>941.67894746564548</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A126">
         <f>Data!B126</f>
         <v>125</v>
@@ -12901,7 +12915,7 @@
         <v>941.67894746564548</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A127">
         <f>Data!B127</f>
         <v>126</v>
@@ -12931,7 +12945,7 @@
         <v>941.67894746564548</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A128">
         <f>Data!B128</f>
         <v>127</v>
@@ -12961,7 +12975,7 @@
         <v>941.80026974938028</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A129">
         <f>Data!B129</f>
         <v>128</v>
@@ -12991,7 +13005,7 @@
         <v>941.80026974938028</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A130">
         <f>Data!B130</f>
         <v>129</v>
@@ -13021,7 +13035,7 @@
         <v>941.80026974938028</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A131">
         <f>Data!B131</f>
         <v>130</v>
@@ -13051,7 +13065,7 @@
         <v>941.80026974938028</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A132">
         <f>Data!B132</f>
         <v>131</v>
@@ -13081,7 +13095,7 @@
         <v>941.80026974938028</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A133">
         <f>Data!B133</f>
         <v>132</v>
@@ -13111,7 +13125,7 @@
         <v>933.54979947510321</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A134">
         <f>Data!B134</f>
         <v>133</v>
@@ -13141,7 +13155,7 @@
         <v>933.54979947510321</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A135">
         <f>Data!B135</f>
         <v>134</v>
@@ -13171,7 +13185,7 @@
         <v>933.54979947510321</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A136">
         <f>Data!B136</f>
         <v>135</v>
@@ -13201,7 +13215,7 @@
         <v>933.54979947510321</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A137">
         <f>Data!B137</f>
         <v>136</v>
@@ -13231,7 +13245,7 @@
         <v>941.79350820655225</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A138">
         <f>Data!B138</f>
         <v>137</v>
@@ -13261,7 +13275,7 @@
         <v>941.79350820655225</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A139">
         <f>Data!B139</f>
         <v>138</v>
@@ -13291,7 +13305,7 @@
         <v>941.79350820655225</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A140">
         <f>Data!B140</f>
         <v>139</v>
@@ -13321,7 +13335,7 @@
         <v>941.79350820655225</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A141">
         <f>Data!B141</f>
         <v>140</v>
@@ -13351,7 +13365,7 @@
         <v>941.79350820655225</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A142">
         <f>Data!B142</f>
         <v>141</v>
@@ -13381,7 +13395,7 @@
         <v>941.79350820655225</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A143">
         <f>Data!B143</f>
         <v>142</v>
@@ -13411,7 +13425,7 @@
         <v>941.79350820655225</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A144">
         <f>Data!B144</f>
         <v>143</v>
@@ -13441,7 +13455,7 @@
         <v>941.79350820655225</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A145">
         <f>Data!B145</f>
         <v>144</v>
@@ -13471,7 +13485,7 @@
         <v>941.79350820655225</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A146">
         <f>Data!B146</f>
         <v>145</v>
@@ -13501,7 +13515,7 @@
         <v>962.63846593620292</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A147">
         <f>Data!B147</f>
         <v>146</v>
@@ -13531,7 +13545,7 @@
         <v>962.63846593620292</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A148">
         <f>Data!B148</f>
         <v>147</v>
@@ -13561,7 +13575,7 @@
         <v>962.63846593620292</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A149">
         <f>Data!B149</f>
         <v>148</v>
@@ -13591,7 +13605,7 @@
         <v>962.63846593620292</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A150">
         <f>Data!B150</f>
         <v>149</v>
@@ -13621,7 +13635,7 @@
         <v>962.63846593620292</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A151">
         <f>Data!B151</f>
         <v>150</v>
@@ -13651,7 +13665,7 @@
         <v>962.63846593620292</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A152">
         <f>Data!B152</f>
         <v>151</v>
@@ -13681,7 +13695,7 @@
         <v>962.63846593620292</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A153">
         <f>Data!B153</f>
         <v>152</v>
@@ -13711,7 +13725,7 @@
         <v>962.63846593620292</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A154">
         <f>Data!B154</f>
         <v>153</v>
@@ -13741,7 +13755,7 @@
         <v>962.63846593620292</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A155">
         <f>Data!B155</f>
         <v>154</v>
@@ -13771,7 +13785,7 @@
         <v>962.63846593620292</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A156">
         <f>Data!B156</f>
         <v>155</v>
@@ -13801,7 +13815,7 @@
         <v>962.63846593620292</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A157">
         <f>Data!B157</f>
         <v>156</v>
@@ -13831,7 +13845,7 @@
         <v>962.63846593620292</v>
       </c>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A158">
         <f>Data!B158</f>
         <v>157</v>
@@ -13861,7 +13875,7 @@
         <v>962.63846593620292</v>
       </c>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A159">
         <f>Data!B159</f>
         <v>158</v>
@@ -13891,7 +13905,7 @@
         <v>962.63846593620292</v>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A160">
         <f>Data!B160</f>
         <v>159</v>
@@ -13921,7 +13935,7 @@
         <v>962.63846593620292</v>
       </c>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A161">
         <f>Data!B161</f>
         <v>160</v>
@@ -13951,7 +13965,7 @@
         <v>962.63846593620292</v>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A162">
         <f>Data!B162</f>
         <v>161</v>
@@ -13981,7 +13995,7 @@
         <v>962.63846593620292</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A163">
         <f>Data!B163</f>
         <v>162</v>
@@ -14011,7 +14025,7 @@
         <v>962.63846593620292</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A164">
         <f>Data!B164</f>
         <v>163</v>
@@ -14041,7 +14055,7 @@
         <v>962.63846593620292</v>
       </c>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A165">
         <f>Data!B165</f>
         <v>164</v>
@@ -14071,7 +14085,7 @@
         <v>958.99083838168349</v>
       </c>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A166">
         <f>Data!B166</f>
         <v>165</v>
@@ -14101,7 +14115,7 @@
         <v>958.99083838168349</v>
       </c>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A167">
         <f>Data!B167</f>
         <v>166</v>
@@ -14131,7 +14145,7 @@
         <v>958.99083838168349</v>
       </c>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A168">
         <f>Data!B168</f>
         <v>167</v>
@@ -14161,7 +14175,7 @@
         <v>958.99083838168349</v>
       </c>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A169">
         <f>Data!B169</f>
         <v>168</v>
@@ -14191,7 +14205,7 @@
         <v>960.30470586163653</v>
       </c>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A170">
         <f>Data!B170</f>
         <v>169</v>
@@ -14221,7 +14235,7 @@
         <v>960.30470586163653</v>
       </c>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A171">
         <f>Data!B171</f>
         <v>170</v>
@@ -14251,7 +14265,7 @@
         <v>960.30470586163653</v>
       </c>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A172">
         <f>Data!B172</f>
         <v>171</v>
@@ -14281,7 +14295,7 @@
         <v>960.30470586163653</v>
       </c>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A173">
         <f>Data!B173</f>
         <v>172</v>
@@ -14311,7 +14325,7 @@
         <v>960.30470586163653</v>
       </c>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A174">
         <f>Data!B174</f>
         <v>173</v>
@@ -14341,7 +14355,7 @@
         <v>960.30470586163653</v>
       </c>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A175">
         <f>Data!B175</f>
         <v>174</v>
@@ -14371,7 +14385,7 @@
         <v>960.30470586163653</v>
       </c>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A176">
         <f>Data!B176</f>
         <v>175</v>
@@ -14401,7 +14415,7 @@
         <v>960.30470586163653</v>
       </c>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A177">
         <f>Data!B177</f>
         <v>176</v>
@@ -14431,7 +14445,7 @@
         <v>960.30470586163653</v>
       </c>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A178">
         <f>Data!B178</f>
         <v>177</v>
@@ -14461,7 +14475,7 @@
         <v>960.30470586163653</v>
       </c>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A179">
         <f>Data!B179</f>
         <v>178</v>
@@ -14491,7 +14505,7 @@
         <v>960.30470586163653</v>
       </c>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A180">
         <f>Data!B180</f>
         <v>179</v>
@@ -14521,7 +14535,7 @@
         <v>960.30470586163653</v>
       </c>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A181">
         <f>Data!B181</f>
         <v>180</v>
@@ -14551,7 +14565,7 @@
         <v>960.30470586163653</v>
       </c>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A182">
         <f>Data!B182</f>
         <v>181</v>
@@ -14581,7 +14595,7 @@
         <v>960.30470586163653</v>
       </c>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A183">
         <f>Data!B183</f>
         <v>182</v>
@@ -14611,7 +14625,7 @@
         <v>960.30470586163653</v>
       </c>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A184">
         <f>Data!B184</f>
         <v>183</v>
@@ -14641,7 +14655,7 @@
         <v>960.30470586163653</v>
       </c>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A185">
         <f>Data!B185</f>
         <v>184</v>
@@ -14671,7 +14685,7 @@
         <v>960.30470586163653</v>
       </c>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A186">
         <f>Data!B186</f>
         <v>185</v>
@@ -14701,7 +14715,7 @@
         <v>960.30470586163653</v>
       </c>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A187">
         <f>Data!B187</f>
         <v>186</v>
@@ -14731,7 +14745,7 @@
         <v>960.30470586163653</v>
       </c>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A188">
         <f>Data!B188</f>
         <v>187</v>
@@ -14761,7 +14775,7 @@
         <v>960.30470586163653</v>
       </c>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A189">
         <f>Data!B189</f>
         <v>188</v>
@@ -14791,7 +14805,7 @@
         <v>960.30470586163653</v>
       </c>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A190">
         <f>Data!B190</f>
         <v>189</v>
@@ -14821,7 +14835,7 @@
         <v>960.30470586163653</v>
       </c>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A191">
         <f>Data!B191</f>
         <v>190</v>
@@ -14851,7 +14865,7 @@
         <v>960.30470586163653</v>
       </c>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A192">
         <f>Data!B192</f>
         <v>191</v>
@@ -14881,7 +14895,7 @@
         <v>960.30470586163653</v>
       </c>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A193">
         <f>Data!B193</f>
         <v>192</v>
@@ -14911,7 +14925,7 @@
         <v>960.30470586163653</v>
       </c>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A194">
         <f>Data!B194</f>
         <v>193</v>
@@ -14941,7 +14955,7 @@
         <v>960.30470586163653</v>
       </c>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A195">
         <f>Data!B195</f>
         <v>194</v>
@@ -14971,7 +14985,7 @@
         <v>997.52569495728096</v>
       </c>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A196">
         <f>Data!B196</f>
         <v>195</v>
@@ -15001,7 +15015,7 @@
         <v>997.52569495728096</v>
       </c>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A197">
         <f>Data!B197</f>
         <v>196</v>
@@ -15031,7 +15045,7 @@
         <v>997.52569495728096</v>
       </c>
     </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A198">
         <f>Data!B198</f>
         <v>197</v>
@@ -15061,7 +15075,7 @@
         <v>997.52569495728096</v>
       </c>
     </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A199">
         <f>Data!B199</f>
         <v>198</v>
@@ -15091,7 +15105,7 @@
         <v>997.52569495728096</v>
       </c>
     </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A200">
         <f>Data!B200</f>
         <v>199</v>
@@ -15121,7 +15135,7 @@
         <v>997.52569495728096</v>
       </c>
     </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A201">
         <f>Data!B201</f>
         <v>200</v>
@@ -15151,7 +15165,7 @@
         <v>997.52569495728096</v>
       </c>
     </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A202">
         <f>Data!B202</f>
         <v>201</v>
